--- a/Code/Results/Cases/Case_4_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.665818828123861</v>
+        <v>1.339138636047295</v>
       </c>
       <c r="C2">
-        <v>0.7338030449575399</v>
+        <v>0.6822874540790167</v>
       </c>
       <c r="D2">
-        <v>0.5423901042589421</v>
+        <v>0.6876767610321508</v>
       </c>
       <c r="E2">
-        <v>0.2414453847706142</v>
+        <v>0.2797642199864896</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008455500993637983</v>
+        <v>0.002631925694092923</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.69899199118673</v>
+        <v>2.315527991889027</v>
       </c>
       <c r="J2">
-        <v>0.1425024616725565</v>
+        <v>0.1450022493354552</v>
       </c>
       <c r="K2">
-        <v>2.390919737466419</v>
+        <v>2.019307990800598</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.681366536688813</v>
+        <v>3.92459706957834</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.459414723441768</v>
+        <v>1.295990837717596</v>
       </c>
       <c r="C3">
-        <v>0.6524709712419394</v>
+        <v>0.6656458095005746</v>
       </c>
       <c r="D3">
-        <v>0.4898273765352315</v>
+        <v>0.67903188140059</v>
       </c>
       <c r="E3">
-        <v>0.2166615867722044</v>
+        <v>0.2754301794278007</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008544730127481693</v>
+        <v>0.002637331869385179</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.607495389948085</v>
+        <v>2.297489746990578</v>
       </c>
       <c r="J3">
-        <v>0.1268257044137755</v>
+        <v>0.1420633201189716</v>
       </c>
       <c r="K3">
-        <v>2.103582099439137</v>
+        <v>1.959706342893128</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.638483223691679</v>
+        <v>3.912949913859421</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.33548192480967</v>
+        <v>1.270379787769343</v>
       </c>
       <c r="C4">
-        <v>0.6039435120641201</v>
+        <v>0.6558268404656644</v>
       </c>
       <c r="D4">
-        <v>0.4585424339115889</v>
+        <v>0.6740936387296301</v>
       </c>
       <c r="E4">
-        <v>0.2018976190891451</v>
+        <v>0.2729267394352632</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008600920004246551</v>
+        <v>0.002640824128888543</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.553829866146458</v>
+        <v>2.287210084993347</v>
       </c>
       <c r="J4">
-        <v>0.1174773755784813</v>
+        <v>0.1403457294324113</v>
       </c>
       <c r="K4">
-        <v>1.931376517692883</v>
+        <v>1.924393212673806</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.614740342292436</v>
+        <v>3.906529951568572</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.285601180527635</v>
+        <v>1.260164107528794</v>
       </c>
       <c r="C5">
-        <v>0.5844836185409292</v>
+        <v>0.6519254111217663</v>
       </c>
       <c r="D5">
-        <v>0.4460176948954313</v>
+        <v>0.672174030531238</v>
       </c>
       <c r="E5">
-        <v>0.1959834636083926</v>
+        <v>0.2719460968690868</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008624188825444874</v>
+        <v>0.00264229086948925</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.532539372388314</v>
+        <v>2.283220633502921</v>
       </c>
       <c r="J5">
-        <v>0.1137300125266663</v>
+        <v>0.1396675628127468</v>
       </c>
       <c r="K5">
-        <v>1.862142070263161</v>
+        <v>1.910324124767698</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.605669651863025</v>
+        <v>3.904097054783151</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.277353896934102</v>
+        <v>1.258481130554941</v>
       </c>
       <c r="C6">
-        <v>0.5812702860784498</v>
+        <v>0.651283600748684</v>
       </c>
       <c r="D6">
-        <v>0.4439508318113781</v>
+        <v>0.6718608778506905</v>
       </c>
       <c r="E6">
-        <v>0.19500727654858</v>
+        <v>0.2717856459559655</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008628075508533679</v>
+        <v>0.002642537059569579</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.529037574166054</v>
+        <v>2.282570227559006</v>
       </c>
       <c r="J6">
-        <v>0.1131113112538031</v>
+        <v>0.1395562656874674</v>
       </c>
       <c r="K6">
-        <v>1.85069922958084</v>
+        <v>1.908007334577974</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.604198726045993</v>
+        <v>3.903704125923298</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.334806795987305</v>
+        <v>1.270241121542227</v>
       </c>
       <c r="C7">
-        <v>0.6036798413652491</v>
+        <v>0.6557738206303156</v>
       </c>
       <c r="D7">
-        <v>0.458372644265495</v>
+        <v>0.674067374889546</v>
       </c>
       <c r="E7">
-        <v>0.2018174593451505</v>
+        <v>0.2729133542484519</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008601232290470071</v>
+        <v>0.002640843732953352</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.553540459528321</v>
+        <v>2.287155474439103</v>
       </c>
       <c r="J7">
-        <v>0.1174265951742655</v>
+        <v>0.1403364954317823</v>
       </c>
       <c r="K7">
-        <v>1.930439140673684</v>
+        <v>1.924202172687131</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.61461562111954</v>
+        <v>3.906496399420007</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.594018323244029</v>
+        <v>1.324077784991744</v>
       </c>
       <c r="C8">
-        <v>0.7054421391756591</v>
+        <v>0.6764662973993438</v>
       </c>
       <c r="D8">
-        <v>0.5240458023720862</v>
+        <v>0.6846191326024496</v>
       </c>
       <c r="E8">
-        <v>0.2327984369743845</v>
+        <v>0.27823704167767</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008485987497852829</v>
+        <v>0.002633753961345079</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.666888546170753</v>
+        <v>2.309142880572622</v>
       </c>
       <c r="J8">
-        <v>0.1370347987041782</v>
+        <v>0.1439708083603151</v>
       </c>
       <c r="K8">
-        <v>2.290893614020717</v>
+        <v>1.998490401031574</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.666014340993343</v>
+        <v>3.920428928475019</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.128637365438806</v>
+        <v>1.436689252943609</v>
       </c>
       <c r="C9">
-        <v>0.9181750300426188</v>
+        <v>0.7202349373309005</v>
       </c>
       <c r="D9">
-        <v>0.6619104349487657</v>
+        <v>0.7082565362940443</v>
       </c>
       <c r="E9">
-        <v>0.2977402850346209</v>
+        <v>0.2899342849927891</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008270213000417812</v>
+        <v>0.00262121539946891</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.91179702883484</v>
+        <v>2.35860392767907</v>
       </c>
       <c r="J9">
-        <v>0.1780677973457401</v>
+        <v>0.1517921466171117</v>
       </c>
       <c r="K9">
-        <v>3.037310690910658</v>
+        <v>2.154411013285653</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.789648806174739</v>
+        <v>3.953586157510813</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.543895273173973</v>
+        <v>1.523783349971779</v>
       </c>
       <c r="C10">
-        <v>1.085638608137003</v>
+        <v>0.7543752349287161</v>
       </c>
       <c r="D10">
-        <v>0.7706805821302964</v>
+        <v>0.7274378169623503</v>
       </c>
       <c r="E10">
-        <v>0.3489385737799182</v>
+        <v>0.2993051570506964</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008116491157972656</v>
+        <v>0.002612825314130422</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.109759324451872</v>
+        <v>2.398856522454921</v>
       </c>
       <c r="J10">
-        <v>0.2103908987663772</v>
+        <v>0.1579693135705611</v>
       </c>
       <c r="K10">
-        <v>3.619402508570374</v>
+        <v>2.27531617554655</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.898044908774693</v>
+        <v>3.981553241874025</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.739360763471154</v>
+        <v>1.564366780355215</v>
       </c>
       <c r="C11">
-        <v>1.165068377739146</v>
+        <v>0.770345925819413</v>
       </c>
       <c r="D11">
-        <v>0.8222947820973445</v>
+        <v>0.736562415103748</v>
       </c>
       <c r="E11">
-        <v>0.373230301609361</v>
+        <v>0.3037392640753183</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008047236382621126</v>
+        <v>0.00260918483763939</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.204833920749635</v>
+        <v>2.418028815376886</v>
       </c>
       <c r="J11">
-        <v>0.2257256775960457</v>
+        <v>0.1608747102681605</v>
       </c>
       <c r="K11">
-        <v>3.894025105743026</v>
+        <v>2.331722432041772</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.952119908958309</v>
+        <v>3.995070297751084</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.814484473254822</v>
+        <v>1.579874355068853</v>
       </c>
       <c r="C12">
-        <v>1.195693856488731</v>
+        <v>0.7764575304545929</v>
       </c>
       <c r="D12">
-        <v>0.8421959736136841</v>
+        <v>0.740075345139303</v>
       </c>
       <c r="E12">
-        <v>0.382596656024468</v>
+        <v>0.305443140508558</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008021073045691097</v>
+        <v>0.002607831462937679</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.241665292684587</v>
+        <v>2.425413459818159</v>
       </c>
       <c r="J12">
-        <v>0.2316386557413495</v>
+        <v>0.1619887469788353</v>
       </c>
       <c r="K12">
-        <v>3.999673142738231</v>
+        <v>2.353285901171262</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.97337456646207</v>
+        <v>4.000303953595846</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.798253268415806</v>
+        <v>1.576528301968551</v>
       </c>
       <c r="C13">
-        <v>1.189072379995025</v>
+        <v>0.7751384381504636</v>
       </c>
       <c r="D13">
-        <v>0.8378932040102995</v>
+        <v>0.7393162046481052</v>
       </c>
       <c r="E13">
-        <v>0.3805715771476343</v>
+        <v>0.3050750758596195</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008026705643062796</v>
+        <v>0.002608121818330034</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.233694278600609</v>
+        <v>2.423817495827805</v>
       </c>
       <c r="J13">
-        <v>0.2303602064404942</v>
+        <v>0.1617482025230288</v>
       </c>
       <c r="K13">
-        <v>3.976842150890661</v>
+        <v>2.348632741231938</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.968760795868633</v>
+        <v>3.999171663406912</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.74551808071152</v>
+        <v>1.565639796598816</v>
       </c>
       <c r="C14">
-        <v>1.167576489676549</v>
+        <v>0.7708474482705014</v>
       </c>
       <c r="D14">
-        <v>0.8239246235401936</v>
+        <v>0.7368502691174115</v>
       </c>
       <c r="E14">
-        <v>0.3739973708084463</v>
+        <v>0.3038789455837474</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008045082884945804</v>
+        <v>0.002609072990621408</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.207846786267993</v>
+        <v>2.418633855168153</v>
       </c>
       <c r="J14">
-        <v>0.2262099211707778</v>
+        <v>0.1609660849968009</v>
       </c>
       <c r="K14">
-        <v>3.902682170349465</v>
+        <v>2.333492381702001</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.953852380887156</v>
+        <v>3.99549856377061</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.713365360976923</v>
+        <v>1.558988468279438</v>
       </c>
       <c r="C15">
-        <v>1.154483458683842</v>
+        <v>0.7682274252733237</v>
       </c>
       <c r="D15">
-        <v>0.8154164057043261</v>
+        <v>0.735347327513665</v>
       </c>
       <c r="E15">
-        <v>0.3699930650801164</v>
+        <v>0.3031495123985266</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008056346423264433</v>
+        <v>0.002609658887837263</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.192125795585866</v>
+        <v>2.415474961185268</v>
       </c>
       <c r="J15">
-        <v>0.2236820523072538</v>
+        <v>0.1604888193383687</v>
       </c>
       <c r="K15">
-        <v>3.857480245916918</v>
+        <v>2.324245039259324</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.944824784460735</v>
+        <v>3.993263688703564</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.531266499781395</v>
+        <v>1.521150600027624</v>
       </c>
       <c r="C16">
-        <v>1.08051964648007</v>
+        <v>0.7533404166544528</v>
       </c>
       <c r="D16">
-        <v>0.7673544612638636</v>
+        <v>0.7268495540768924</v>
       </c>
       <c r="E16">
-        <v>0.3473731453326891</v>
+        <v>0.2990188365273951</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008121027799409106</v>
+        <v>0.002613066761211547</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.10365579144397</v>
+        <v>2.397620954713631</v>
       </c>
       <c r="J16">
-        <v>0.2094026890410277</v>
+        <v>0.1577813676889406</v>
       </c>
       <c r="K16">
-        <v>3.60167288000298</v>
+        <v>2.271658309744964</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.894614472917453</v>
+        <v>3.980685926763869</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.421343638590031</v>
+        <v>1.498185804464072</v>
       </c>
       <c r="C17">
-        <v>1.036030893252871</v>
+        <v>0.7443208371111609</v>
       </c>
       <c r="D17">
-        <v>0.7384494631278642</v>
+        <v>0.7217388167284753</v>
       </c>
       <c r="E17">
-        <v>0.3337688096980216</v>
+        <v>0.2965287681145838</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00081608569214775</v>
+        <v>0.002615202410843579</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.050739589257901</v>
+        <v>2.386889146551908</v>
       </c>
       <c r="J17">
-        <v>0.2008145645772288</v>
+        <v>0.1561449396579064</v>
       </c>
       <c r="K17">
-        <v>3.447421500838232</v>
+        <v>2.239759177903807</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.865094301716709</v>
+        <v>3.973173956525955</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.35872573368664</v>
+        <v>1.485067731722268</v>
       </c>
       <c r="C18">
-        <v>1.01074262027538</v>
+        <v>0.7391744031594953</v>
       </c>
       <c r="D18">
-        <v>0.7220216296170463</v>
+        <v>0.7188367886847686</v>
       </c>
       <c r="E18">
-        <v>0.3260366146277747</v>
+        <v>0.2951126562841324</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008183831376570753</v>
+        <v>0.002616447374943398</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.020768948755247</v>
+        <v>2.38079751194671</v>
       </c>
       <c r="J18">
-        <v>0.1959332443480548</v>
+        <v>0.1552126796351274</v>
       </c>
       <c r="K18">
-        <v>3.359608775487004</v>
+        <v>2.221543879628427</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.848557351333881</v>
+        <v>3.968928023388315</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.337624043792744</v>
+        <v>1.480641723219776</v>
       </c>
       <c r="C19">
-        <v>1.002229802550914</v>
+        <v>0.7374390007360603</v>
       </c>
       <c r="D19">
-        <v>0.716491990594335</v>
+        <v>0.7178606498778493</v>
       </c>
       <c r="E19">
-        <v>0.3234338741894689</v>
+        <v>0.2946359474652738</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008191622424140732</v>
+        <v>0.002616871752971317</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.010698315090053</v>
+        <v>2.378748883620801</v>
       </c>
       <c r="J19">
-        <v>0.1942901015064393</v>
+        <v>0.1548985696697116</v>
       </c>
       <c r="K19">
-        <v>3.330026127165809</v>
+        <v>2.215399160247102</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.843031575456422</v>
+        <v>3.967503239228279</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.432981212290713</v>
+        <v>1.500621055653312</v>
       </c>
       <c r="C20">
-        <v>1.040735156036362</v>
+        <v>0.745276699024771</v>
       </c>
       <c r="D20">
-        <v>0.7415056689701771</v>
+        <v>0.7222789769571705</v>
       </c>
       <c r="E20">
-        <v>0.335207264105172</v>
+        <v>0.2967921717790816</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008156610473088974</v>
+        <v>0.002614973350882471</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.056323720118598</v>
+        <v>2.388023175990966</v>
       </c>
       <c r="J20">
-        <v>0.2017226428744863</v>
+        <v>0.156318211043498</v>
       </c>
       <c r="K20">
-        <v>3.463746145698678</v>
+        <v>2.243141198150568</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.868190372491597</v>
+        <v>3.97396587638346</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.760976289257144</v>
+        <v>1.568834220968768</v>
       </c>
       <c r="C21">
-        <v>1.173874809917834</v>
+        <v>0.7721060785659688</v>
       </c>
       <c r="D21">
-        <v>0.8280174455687188</v>
+        <v>0.7375730075112301</v>
       </c>
       <c r="E21">
-        <v>0.3759236207490702</v>
+        <v>0.304229604398536</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008039683664331743</v>
+        <v>0.002608792925460806</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.215415404879636</v>
+        <v>2.4201530313712</v>
       </c>
       <c r="J21">
-        <v>0.2274259497623348</v>
+        <v>0.1611954357379801</v>
       </c>
       <c r="K21">
-        <v>3.924417758134041</v>
+        <v>2.337933933505894</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.958209436590408</v>
+        <v>3.996574313857309</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.981873995026831</v>
+        <v>1.614229077920811</v>
       </c>
       <c r="C22">
-        <v>1.264124359804953</v>
+        <v>0.790013069881752</v>
       </c>
       <c r="D22">
-        <v>0.8866611350570679</v>
+        <v>0.747904660295859</v>
       </c>
       <c r="E22">
-        <v>0.4035245722351775</v>
+        <v>0.3092348845617536</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007963606418800921</v>
+        <v>0.002604900448027947</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.324282243375023</v>
+        <v>2.44187783152617</v>
       </c>
       <c r="J22">
-        <v>0.2448513690824115</v>
+        <v>0.1644636261736565</v>
       </c>
       <c r="K22">
-        <v>4.235274635507892</v>
+        <v>2.401074170245124</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.021627640251353</v>
+        <v>4.012021140168173</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.863319357540945</v>
+        <v>1.589926238012367</v>
       </c>
       <c r="C23">
-        <v>1.215630929607016</v>
+        <v>0.7804215034852291</v>
       </c>
       <c r="D23">
-        <v>0.855151313503967</v>
+        <v>0.7423596145613374</v>
       </c>
       <c r="E23">
-        <v>0.3886940768996752</v>
+        <v>0.3065502009219472</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008004191918482562</v>
+        <v>0.002606964553123516</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.265691047141985</v>
+        <v>2.430216233133294</v>
       </c>
       <c r="J23">
-        <v>0.2354880764062273</v>
+        <v>0.1627119151989973</v>
       </c>
       <c r="K23">
-        <v>4.068380383297892</v>
+        <v>2.367265864809326</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.987326451535949</v>
+        <v>4.003715234499992</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.427718076123767</v>
+        <v>1.499519814854978</v>
       </c>
       <c r="C24">
-        <v>1.038607464840368</v>
+        <v>0.7448444322872092</v>
       </c>
       <c r="D24">
-        <v>0.7401233700113039</v>
+        <v>0.7220346577737757</v>
       </c>
       <c r="E24">
-        <v>0.3345566630214023</v>
+        <v>0.2966730388340224</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008158530053976611</v>
+        <v>0.002615076855418878</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.053797735830386</v>
+        <v>2.387510237679464</v>
       </c>
       <c r="J24">
-        <v>0.2013119270431503</v>
+        <v>0.1562398484449261</v>
       </c>
       <c r="K24">
-        <v>3.456363086531553</v>
+        <v>2.241611800869862</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.866789292066017</v>
+        <v>3.973607622722142</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.980574101282514</v>
+        <v>1.405464466742046</v>
       </c>
       <c r="C25">
-        <v>0.8589140060176135</v>
+        <v>0.7080488481744567</v>
       </c>
       <c r="D25">
-        <v>0.6234556097413417</v>
+        <v>0.7015446980347235</v>
       </c>
       <c r="E25">
-        <v>0.2796339931103589</v>
+        <v>0.2866341937220724</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008327628828929583</v>
+        <v>0.002624462354695156</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.84271358740898</v>
+        <v>2.344539528661812</v>
       </c>
       <c r="J25">
-        <v>0.1666331831341026</v>
+        <v>0.1496011562793811</v>
       </c>
       <c r="K25">
-        <v>2.830229724154464</v>
+        <v>2.111123009476643</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.753408201589906</v>
+        <v>3.943986490534201</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.339138636047295</v>
+        <v>1.665818828123975</v>
       </c>
       <c r="C2">
-        <v>0.6822874540790167</v>
+        <v>0.7338030449577957</v>
       </c>
       <c r="D2">
-        <v>0.6876767610321508</v>
+        <v>0.5423901042586579</v>
       </c>
       <c r="E2">
-        <v>0.2797642199864896</v>
+        <v>0.2414453847706142</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002631925694092923</v>
+        <v>0.0008455500993040011</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.315527991889027</v>
+        <v>1.69899199118673</v>
       </c>
       <c r="J2">
-        <v>0.1450022493354552</v>
+        <v>0.1425024616724357</v>
       </c>
       <c r="K2">
-        <v>2.019307990800598</v>
+        <v>2.390919737466533</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.92459706957834</v>
+        <v>2.681366536688842</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.295990837717596</v>
+        <v>1.459414723441569</v>
       </c>
       <c r="C3">
-        <v>0.6656458095005746</v>
+        <v>0.6524709712415699</v>
       </c>
       <c r="D3">
-        <v>0.67903188140059</v>
+        <v>0.4898273765352315</v>
       </c>
       <c r="E3">
-        <v>0.2754301794278007</v>
+        <v>0.2166615867722044</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002637331869385179</v>
+        <v>0.0008544730128092757</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.297489746990578</v>
+        <v>1.607495389948113</v>
       </c>
       <c r="J3">
-        <v>0.1420633201189716</v>
+        <v>0.1268257044136831</v>
       </c>
       <c r="K3">
-        <v>1.959706342893128</v>
+        <v>2.103582099439166</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.912949913859421</v>
+        <v>2.638483223691779</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.270379787769343</v>
+        <v>1.335481924809784</v>
       </c>
       <c r="C4">
-        <v>0.6558268404656644</v>
+        <v>0.6039435120638927</v>
       </c>
       <c r="D4">
-        <v>0.6740936387296301</v>
+        <v>0.4585424339116742</v>
       </c>
       <c r="E4">
-        <v>0.2729267394352632</v>
+        <v>0.2018976190891166</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002640824128888543</v>
+        <v>0.0008600920004833394</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.287210084993347</v>
+        <v>1.553829866146458</v>
       </c>
       <c r="J4">
-        <v>0.1403457294324113</v>
+        <v>0.1174773755784244</v>
       </c>
       <c r="K4">
-        <v>1.924393212673806</v>
+        <v>1.931376517692883</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.906529951568572</v>
+        <v>2.614740342292563</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.260164107528794</v>
+        <v>1.285601180527607</v>
       </c>
       <c r="C5">
-        <v>0.6519254111217663</v>
+        <v>0.5844836185408155</v>
       </c>
       <c r="D5">
-        <v>0.672174030531238</v>
+        <v>0.4460176948956871</v>
       </c>
       <c r="E5">
-        <v>0.2719460968690868</v>
+        <v>0.1959834636084139</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00264229086948925</v>
+        <v>0.0008624188825421264</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.283220633502921</v>
+        <v>1.5325393723883</v>
       </c>
       <c r="J5">
-        <v>0.1396675628127468</v>
+        <v>0.1137300125266947</v>
       </c>
       <c r="K5">
-        <v>1.910324124767698</v>
+        <v>1.862142070263275</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.904097054783151</v>
+        <v>2.605669651862883</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.258481130554941</v>
+        <v>1.277353896934159</v>
       </c>
       <c r="C6">
-        <v>0.651283600748684</v>
+        <v>0.5812702860784498</v>
       </c>
       <c r="D6">
-        <v>0.6718608778506905</v>
+        <v>0.4439508318116054</v>
       </c>
       <c r="E6">
-        <v>0.2717856459559655</v>
+        <v>0.1950072765485587</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002642537059569579</v>
+        <v>0.0008628075508576832</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.282570227559006</v>
+        <v>1.529037574166068</v>
       </c>
       <c r="J6">
-        <v>0.1395562656874674</v>
+        <v>0.1131113112539595</v>
       </c>
       <c r="K6">
-        <v>1.908007334577974</v>
+        <v>1.850699229580925</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.903704125923298</v>
+        <v>2.604198726045951</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.270241121542227</v>
+        <v>1.334806795987134</v>
       </c>
       <c r="C7">
-        <v>0.6557738206303156</v>
+        <v>0.6036798413650502</v>
       </c>
       <c r="D7">
-        <v>0.674067374889546</v>
+        <v>0.4583726442654097</v>
       </c>
       <c r="E7">
-        <v>0.2729133542484519</v>
+        <v>0.2018174593451576</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002640843732953352</v>
+        <v>0.0008601232291099953</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.287155474439103</v>
+        <v>1.553540459528335</v>
       </c>
       <c r="J7">
-        <v>0.1403364954317823</v>
+        <v>0.1174265951741873</v>
       </c>
       <c r="K7">
-        <v>1.924202172687131</v>
+        <v>1.930439140673684</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.906496399420007</v>
+        <v>2.614615621119611</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.324077784991744</v>
+        <v>1.594018323244143</v>
       </c>
       <c r="C8">
-        <v>0.6764662973993438</v>
+        <v>0.7054421391758865</v>
       </c>
       <c r="D8">
-        <v>0.6846191326024496</v>
+        <v>0.524045802372143</v>
       </c>
       <c r="E8">
-        <v>0.27823704167767</v>
+        <v>0.2327984369743774</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002633753961345079</v>
+        <v>0.00084859874978266</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.309142880572622</v>
+        <v>1.666888546170782</v>
       </c>
       <c r="J8">
-        <v>0.1439708083603151</v>
+        <v>0.137034798704164</v>
       </c>
       <c r="K8">
-        <v>1.998490401031574</v>
+        <v>2.290893614020774</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.920428928475019</v>
+        <v>2.666014340993343</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.436689252943609</v>
+        <v>2.128637365438749</v>
       </c>
       <c r="C9">
-        <v>0.7202349373309005</v>
+        <v>0.9181750300423346</v>
       </c>
       <c r="D9">
-        <v>0.7082565362940443</v>
+        <v>0.6619104349491352</v>
       </c>
       <c r="E9">
-        <v>0.2899342849927891</v>
+        <v>0.2977402850345712</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.00262121539946891</v>
+        <v>0.0008270212999689779</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.35860392767907</v>
+        <v>1.911797028834869</v>
       </c>
       <c r="J9">
-        <v>0.1517921466171117</v>
+        <v>0.1780677973456903</v>
       </c>
       <c r="K9">
-        <v>2.154411013285653</v>
+        <v>3.037310690910715</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.953586157510813</v>
+        <v>2.789648806174739</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.523783349971779</v>
+        <v>2.543895273174201</v>
       </c>
       <c r="C10">
-        <v>0.7543752349287161</v>
+        <v>1.085638608137458</v>
       </c>
       <c r="D10">
-        <v>0.7274378169623503</v>
+        <v>0.770680582129927</v>
       </c>
       <c r="E10">
-        <v>0.2993051570506964</v>
+        <v>0.3489385737799466</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002612825314130422</v>
+        <v>0.0008116491157403202</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.398856522454921</v>
+        <v>2.109759324451886</v>
       </c>
       <c r="J10">
-        <v>0.1579693135705611</v>
+        <v>0.2103908987663203</v>
       </c>
       <c r="K10">
-        <v>2.27531617554655</v>
+        <v>3.619402508570374</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.981553241874025</v>
+        <v>2.898044908774693</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.564366780355215</v>
+        <v>2.739360763471097</v>
       </c>
       <c r="C11">
-        <v>0.770345925819413</v>
+        <v>1.16506837773909</v>
       </c>
       <c r="D11">
-        <v>0.736562415103748</v>
+        <v>0.8222947820974014</v>
       </c>
       <c r="E11">
-        <v>0.3037392640753183</v>
+        <v>0.3732303016093468</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00260918483763939</v>
+        <v>0.0008047236381891754</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.418028815376886</v>
+        <v>2.204833920749635</v>
       </c>
       <c r="J11">
-        <v>0.1608747102681605</v>
+        <v>0.2257256775960457</v>
       </c>
       <c r="K11">
-        <v>2.331722432041772</v>
+        <v>3.894025105743026</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.995070297751084</v>
+        <v>2.952119908958338</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.579874355068853</v>
+        <v>2.814484473254765</v>
       </c>
       <c r="C12">
-        <v>0.7764575304545929</v>
+        <v>1.195693856488219</v>
       </c>
       <c r="D12">
-        <v>0.740075345139303</v>
+        <v>0.842195973613542</v>
       </c>
       <c r="E12">
-        <v>0.305443140508558</v>
+        <v>0.3825966560244254</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002607831462937679</v>
+        <v>0.000802107304588724</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.425413459818159</v>
+        <v>2.241665292684587</v>
       </c>
       <c r="J12">
-        <v>0.1619887469788353</v>
+        <v>0.2316386557410368</v>
       </c>
       <c r="K12">
-        <v>2.353285901171262</v>
+        <v>3.999673142738118</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.000303953595846</v>
+        <v>2.973374566462041</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.576528301968551</v>
+        <v>2.798253268415749</v>
       </c>
       <c r="C13">
-        <v>0.7751384381504636</v>
+        <v>1.189072379995025</v>
       </c>
       <c r="D13">
-        <v>0.7393162046481052</v>
+        <v>0.8378932040103564</v>
       </c>
       <c r="E13">
-        <v>0.3050750758596195</v>
+        <v>0.3805715771476201</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002608121818330034</v>
+        <v>0.0008026705642901087</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.423817495827805</v>
+        <v>2.233694278600609</v>
       </c>
       <c r="J13">
-        <v>0.1617482025230288</v>
+        <v>0.2303602064403094</v>
       </c>
       <c r="K13">
-        <v>2.348632741231938</v>
+        <v>3.976842150890604</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.999171663406912</v>
+        <v>2.968760795868633</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.565639796598816</v>
+        <v>2.745518080711406</v>
       </c>
       <c r="C14">
-        <v>0.7708474482705014</v>
+        <v>1.167576489676549</v>
       </c>
       <c r="D14">
-        <v>0.7368502691174115</v>
+        <v>0.823924623540023</v>
       </c>
       <c r="E14">
-        <v>0.3038789455837474</v>
+        <v>0.373997370808496</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002609072990621408</v>
+        <v>0.000804508288553718</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.418633855168153</v>
+        <v>2.207846786267993</v>
       </c>
       <c r="J14">
-        <v>0.1609660849968009</v>
+        <v>0.2262099211708346</v>
       </c>
       <c r="K14">
-        <v>2.333492381702001</v>
+        <v>3.902682170349522</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.99549856377061</v>
+        <v>2.953852380887156</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.558988468279438</v>
+        <v>2.713365360976923</v>
       </c>
       <c r="C15">
-        <v>0.7682274252733237</v>
+        <v>1.154483458683274</v>
       </c>
       <c r="D15">
-        <v>0.735347327513665</v>
+        <v>0.8154164057042692</v>
       </c>
       <c r="E15">
-        <v>0.3031495123985266</v>
+        <v>0.3699930650800525</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002609658887837263</v>
+        <v>0.0008056346421869627</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.415474961185268</v>
+        <v>2.192125795585881</v>
       </c>
       <c r="J15">
-        <v>0.1604888193383687</v>
+        <v>0.2236820523073533</v>
       </c>
       <c r="K15">
-        <v>2.324245039259324</v>
+        <v>3.857480245916861</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.993263688703564</v>
+        <v>2.944824784460764</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.521150600027624</v>
+        <v>2.531266499781452</v>
       </c>
       <c r="C16">
-        <v>0.7533404166544528</v>
+        <v>1.080519646480298</v>
       </c>
       <c r="D16">
-        <v>0.7268495540768924</v>
+        <v>0.7673544612637215</v>
       </c>
       <c r="E16">
-        <v>0.2990188365273951</v>
+        <v>0.347373145332682</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002613066761211547</v>
+        <v>0.0008121027800167363</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.397620954713631</v>
+        <v>2.10365579144397</v>
       </c>
       <c r="J16">
-        <v>0.1577813676889406</v>
+        <v>0.2094026890412835</v>
       </c>
       <c r="K16">
-        <v>2.271658309744964</v>
+        <v>3.601672880003093</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.980685926763869</v>
+        <v>2.894614472917397</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.498185804464072</v>
+        <v>2.42134363858986</v>
       </c>
       <c r="C17">
-        <v>0.7443208371111609</v>
+        <v>1.0360308932527</v>
       </c>
       <c r="D17">
-        <v>0.7217388167284753</v>
+        <v>0.7384494631274663</v>
       </c>
       <c r="E17">
-        <v>0.2965287681145838</v>
+        <v>0.3337688096980216</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002615202410843579</v>
+        <v>0.0008160856923327983</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.386889146551908</v>
+        <v>2.050739589257901</v>
       </c>
       <c r="J17">
-        <v>0.1561449396579064</v>
+        <v>0.2008145645771577</v>
       </c>
       <c r="K17">
-        <v>2.239759177903807</v>
+        <v>3.447421500838175</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.973173956525955</v>
+        <v>2.865094301716653</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.485067731722268</v>
+        <v>2.35872573368647</v>
       </c>
       <c r="C18">
-        <v>0.7391744031594953</v>
+        <v>1.010742620275607</v>
       </c>
       <c r="D18">
-        <v>0.7188367886847686</v>
+        <v>0.7220216296173874</v>
       </c>
       <c r="E18">
-        <v>0.2951126562841324</v>
+        <v>0.3260366146277178</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002616447374943398</v>
+        <v>0.000818383137597602</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.38079751194671</v>
+        <v>2.020768948755261</v>
       </c>
       <c r="J18">
-        <v>0.1552126796351274</v>
+        <v>0.1959332443480548</v>
       </c>
       <c r="K18">
-        <v>2.221543879628427</v>
+        <v>3.359608775487061</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.968928023388315</v>
+        <v>2.848557351333938</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.480641723219776</v>
+        <v>2.33762404379263</v>
       </c>
       <c r="C19">
-        <v>0.7374390007360603</v>
+        <v>1.002229802550858</v>
       </c>
       <c r="D19">
-        <v>0.7178606498778493</v>
+        <v>0.716491990594335</v>
       </c>
       <c r="E19">
-        <v>0.2946359474652738</v>
+        <v>0.3234338741894618</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002616871752971317</v>
+        <v>0.0008191622424022177</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.378748883620801</v>
+        <v>2.010698315090053</v>
       </c>
       <c r="J19">
-        <v>0.1548985696697116</v>
+        <v>0.1942901015065388</v>
       </c>
       <c r="K19">
-        <v>2.215399160247102</v>
+        <v>3.330026127165809</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.967503239228279</v>
+        <v>2.84303157545645</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.500621055653312</v>
+        <v>2.432981212290713</v>
       </c>
       <c r="C20">
-        <v>0.745276699024771</v>
+        <v>1.040735156036362</v>
       </c>
       <c r="D20">
-        <v>0.7222789769571705</v>
+        <v>0.7415056689699213</v>
       </c>
       <c r="E20">
-        <v>0.2967921717790816</v>
+        <v>0.3352072641052004</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002614973350882471</v>
+        <v>0.0008156610473100123</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.388023175990966</v>
+        <v>2.05632372011857</v>
       </c>
       <c r="J20">
-        <v>0.156318211043498</v>
+        <v>0.2017226428746142</v>
       </c>
       <c r="K20">
-        <v>2.243141198150568</v>
+        <v>3.463746145698735</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.97396587638346</v>
+        <v>2.868190372491625</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.568834220968768</v>
+        <v>2.760976289257201</v>
       </c>
       <c r="C21">
-        <v>0.7721060785659688</v>
+        <v>1.173874809918061</v>
       </c>
       <c r="D21">
-        <v>0.7375730075112301</v>
+        <v>0.8280174455683209</v>
       </c>
       <c r="E21">
-        <v>0.304229604398536</v>
+        <v>0.375923620748992</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002608792925460806</v>
+        <v>0.0008039683665067945</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.4201530313712</v>
+        <v>2.21541540487965</v>
       </c>
       <c r="J21">
-        <v>0.1611954357379801</v>
+        <v>0.22742594976242</v>
       </c>
       <c r="K21">
-        <v>2.337933933505894</v>
+        <v>3.924417758134155</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.996574313857309</v>
+        <v>2.958209436590437</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.614229077920811</v>
+        <v>2.981873995026831</v>
       </c>
       <c r="C22">
-        <v>0.790013069881752</v>
+        <v>1.264124359805407</v>
       </c>
       <c r="D22">
-        <v>0.747904660295859</v>
+        <v>0.8866611350570963</v>
       </c>
       <c r="E22">
-        <v>0.3092348845617536</v>
+        <v>0.403524572235213</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002604900448027947</v>
+        <v>0.0007963606419413788</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.44187783152617</v>
+        <v>2.324282243374995</v>
       </c>
       <c r="J22">
-        <v>0.1644636261736565</v>
+        <v>0.244851369082383</v>
       </c>
       <c r="K22">
-        <v>2.401074170245124</v>
+        <v>4.235274635507892</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.012021140168173</v>
+        <v>3.021627640251381</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.589926238012367</v>
+        <v>2.863319357541059</v>
       </c>
       <c r="C23">
-        <v>0.7804215034852291</v>
+        <v>1.215630929607016</v>
       </c>
       <c r="D23">
-        <v>0.7423596145613374</v>
+        <v>0.8551513135037681</v>
       </c>
       <c r="E23">
-        <v>0.3065502009219472</v>
+        <v>0.3886940768996894</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002606964553123516</v>
+        <v>0.0008004191918226364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.430216233133294</v>
+        <v>2.265691047141999</v>
       </c>
       <c r="J23">
-        <v>0.1627119151989973</v>
+        <v>0.2354880764065115</v>
       </c>
       <c r="K23">
-        <v>2.367265864809326</v>
+        <v>4.068380383297949</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.003715234499992</v>
+        <v>2.987326451535978</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.499519814854978</v>
+        <v>2.427718076123597</v>
       </c>
       <c r="C24">
-        <v>0.7448444322872092</v>
+        <v>1.038607464840027</v>
       </c>
       <c r="D24">
-        <v>0.7220346577737757</v>
+        <v>0.7401233700116734</v>
       </c>
       <c r="E24">
-        <v>0.2966730388340224</v>
+        <v>0.3345566630214023</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002615076855418878</v>
+        <v>0.0008158530053377537</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.387510237679464</v>
+        <v>2.053797735830372</v>
       </c>
       <c r="J24">
-        <v>0.1562398484449261</v>
+        <v>0.2013119270431218</v>
       </c>
       <c r="K24">
-        <v>2.241611800869862</v>
+        <v>3.456363086531553</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.973607622722142</v>
+        <v>2.866789292066045</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.405464466742046</v>
+        <v>1.980574101282571</v>
       </c>
       <c r="C25">
-        <v>0.7080488481744567</v>
+        <v>0.8589140060171019</v>
       </c>
       <c r="D25">
-        <v>0.7015446980347235</v>
+        <v>0.6234556097410859</v>
       </c>
       <c r="E25">
-        <v>0.2866341937220724</v>
+        <v>0.2796339931103446</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002624462354695156</v>
+        <v>0.0008327628830132723</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.344539528661812</v>
+        <v>1.842713587408966</v>
       </c>
       <c r="J25">
-        <v>0.1496011562793811</v>
+        <v>0.1666331831343086</v>
       </c>
       <c r="K25">
-        <v>2.111123009476643</v>
+        <v>2.830229724154549</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.943986490534201</v>
+        <v>2.753408201589934</v>
       </c>
       <c r="O25">
         <v>0</v>
